--- a/data/outputs/能源化工元源数据文件_elsevier/41PETROLEUM SCIENCE AND TECHNOLOGY.xlsx
+++ b/data/outputs/能源化工元源数据文件_elsevier/41PETROLEUM SCIENCE AND TECHNOLOGY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS242"/>
+  <dimension ref="A1:BU242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -933,6 +943,12 @@
           <t>2-s2.0-84951821029</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1151,6 +1167,12 @@
         <is>
           <t>2-s2.0-84951827155</t>
         </is>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -1363,6 +1385,12 @@
           <t>2-s2.0-84951732999</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1578,6 +1606,12 @@
           <t>2-s2.0-84951832800</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1796,6 +1830,12 @@
         <is>
           <t>2-s2.0-84951808306</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2008,6 +2048,12 @@
           <t>2-s2.0-84951732218</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2230,6 +2276,12 @@
         <is>
           <t>2-s2.0-84951853362</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2442,6 +2494,12 @@
           <t>2-s2.0-84951752452</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2661,6 +2719,12 @@
           <t>2-s2.0-84951737509</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2872,6 +2936,12 @@
           <t>2-s2.0-84951182663</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3087,6 +3157,12 @@
           <t>2-s2.0-84951123076</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3302,6 +3378,12 @@
           <t>2-s2.0-84951101968</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3521,6 +3603,12 @@
           <t>2-s2.0-84950982298</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3736,6 +3824,12 @@
           <t>2-s2.0-84951078528</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3942,6 +4036,12 @@
         <is>
           <t>2-s2.0-84951053716</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -4150,6 +4250,12 @@
           <t>2-s2.0-84951101791</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4364,6 +4470,12 @@
         <is>
           <t>2-s2.0-84950992433</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -4568,6 +4680,12 @@
           <t>2-s2.0-84951028764</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4775,6 +4893,12 @@
           <t>2-s2.0-84951170997</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4994,6 +5118,12 @@
           <t>2-s2.0-84951074178</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5205,6 +5335,12 @@
           <t>2-s2.0-84951074268</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5416,6 +5552,12 @@
           <t>2-s2.0-84951192477</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5623,6 +5765,12 @@
           <t>2-s2.0-84951087912</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5838,6 +5986,12 @@
           <t>2-s2.0-84951046224</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6053,6 +6207,12 @@
           <t>2-s2.0-84949552344</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6264,6 +6424,12 @@
           <t>2-s2.0-84949547472</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6478,6 +6644,12 @@
         <is>
           <t>2-s2.0-84949556973</t>
         </is>
+      </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -6682,6 +6854,12 @@
           <t>2-s2.0-84949551719</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6903,6 +7081,12 @@
           <t>2-s2.0-84949553430</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7118,6 +7302,12 @@
           <t>2-s2.0-84949550798</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7337,6 +7527,12 @@
           <t>2-s2.0-84949556509</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7559,6 +7755,12 @@
         <is>
           <t>2-s2.0-84949575474</t>
         </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -7767,6 +7969,12 @@
           <t>2-s2.0-84949562385</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7978,6 +8186,12 @@
           <t>2-s2.0-84949599490</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8184,6 +8398,12 @@
         <is>
           <t>2-s2.0-84949559579</t>
         </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -8391,6 +8611,12 @@
         <is>
           <t>2-s2.0-84949564737</t>
         </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -8575,6 +8801,12 @@
           <t>2-s2.0-84949551729</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8786,6 +9018,12 @@
       <c r="BQ39" t="inlineStr"/>
       <c r="BR39" t="inlineStr"/>
       <c r="BS39" t="inlineStr"/>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8985,6 +9223,12 @@
       <c r="BQ40" t="inlineStr"/>
       <c r="BR40" t="inlineStr"/>
       <c r="BS40" t="inlineStr"/>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9196,6 +9440,12 @@
       <c r="BQ41" t="inlineStr"/>
       <c r="BR41" t="inlineStr"/>
       <c r="BS41" t="inlineStr"/>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9407,6 +9657,12 @@
       <c r="BQ42" t="inlineStr"/>
       <c r="BR42" t="inlineStr"/>
       <c r="BS42" t="inlineStr"/>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9610,6 +9866,12 @@
       <c r="BQ43" t="inlineStr"/>
       <c r="BR43" t="inlineStr"/>
       <c r="BS43" t="inlineStr"/>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9821,6 +10083,12 @@
       <c r="BQ44" t="inlineStr"/>
       <c r="BR44" t="inlineStr"/>
       <c r="BS44" t="inlineStr"/>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10028,6 +10296,12 @@
       <c r="BQ45" t="inlineStr"/>
       <c r="BR45" t="inlineStr"/>
       <c r="BS45" t="inlineStr"/>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10231,6 +10505,12 @@
       <c r="BQ46" t="inlineStr"/>
       <c r="BR46" t="inlineStr"/>
       <c r="BS46" t="inlineStr"/>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10446,6 +10726,12 @@
           <t>2-s2.0-84983121363</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10661,6 +10947,12 @@
           <t>2-s2.0-84983212603</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10871,6 +11163,12 @@
         <is>
           <t>2-s2.0-84983162021</t>
         </is>
+      </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -11075,6 +11373,12 @@
           <t>2-s2.0-84983156683</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11282,6 +11586,12 @@
           <t>2-s2.0-84983150643</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11497,6 +11807,12 @@
           <t>2-s2.0-84983188131</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11712,6 +12028,12 @@
           <t>2-s2.0-84983200526</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11933,6 +12255,12 @@
           <t>2-s2.0-84983112833</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12144,6 +12472,12 @@
           <t>2-s2.0-84983209107</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12355,6 +12689,12 @@
           <t>2-s2.0-84983113037</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12570,6 +12910,12 @@
           <t>2-s2.0-84942154880</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12785,6 +13131,12 @@
           <t>2-s2.0-84942107042</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13000,6 +13352,12 @@
           <t>2-s2.0-84942108063</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13215,6 +13573,12 @@
           <t>2-s2.0-84942092902</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13425,6 +13789,12 @@
         <is>
           <t>2-s2.0-84942109156</t>
         </is>
+      </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -13629,6 +13999,12 @@
           <t>2-s2.0-84942105558</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13832,6 +14208,12 @@
           <t>2-s2.0-84942111955</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14055,6 +14437,12 @@
           <t>2-s2.0-84942120723</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14266,6 +14654,12 @@
           <t>2-s2.0-84942101492</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14485,6 +14879,12 @@
           <t>2-s2.0-84942118091</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14700,6 +15100,12 @@
           <t>2-s2.0-84939442264</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14915,6 +15321,12 @@
           <t>2-s2.0-84939434372</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15138,6 +15550,12 @@
           <t>2-s2.0-84939438374</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15352,6 +15770,12 @@
         <is>
           <t>2-s2.0-84939425634</t>
         </is>
+      </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -15556,6 +15980,12 @@
           <t>2-s2.0-84939419064</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15763,6 +16193,12 @@
           <t>2-s2.0-84939419101</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15986,6 +16422,12 @@
           <t>2-s2.0-84939448049</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16201,6 +16643,12 @@
           <t>2-s2.0-84939435808</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16412,6 +16860,12 @@
           <t>2-s2.0-84939453010</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16626,6 +17080,12 @@
         <is>
           <t>2-s2.0-84939421404</t>
         </is>
+      </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -16834,6 +17294,12 @@
           <t>2-s2.0-84939558017</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17037,6 +17503,12 @@
           <t>2-s2.0-84939553978</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17244,6 +17716,12 @@
           <t>2-s2.0-84939508403</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17454,6 +17932,12 @@
         <is>
           <t>2-s2.0-84939528337</t>
         </is>
+      </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -17662,6 +18146,12 @@
           <t>2-s2.0-84939496139</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17877,6 +18367,12 @@
           <t>2-s2.0-84939505512</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18091,6 +18587,12 @@
         <is>
           <t>2-s2.0-84939135342</t>
         </is>
+      </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -18299,6 +18801,12 @@
           <t>2-s2.0-84939126527</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18513,6 +19021,12 @@
         <is>
           <t>2-s2.0-84939159640</t>
         </is>
+      </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -18721,6 +19235,12 @@
           <t>2-s2.0-84939199338</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18944,6 +19464,12 @@
           <t>2-s2.0-84939159499</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19159,6 +19685,12 @@
           <t>2-s2.0-84939209479</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19374,6 +19906,12 @@
           <t>2-s2.0-84939183206</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19589,6 +20127,12 @@
           <t>2-s2.0-84939150519</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19800,6 +20344,12 @@
           <t>2-s2.0-84939210222</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20023,6 +20573,12 @@
           <t>2-s2.0-84939150504</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20238,6 +20794,12 @@
           <t>2-s2.0-84939155054</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20448,6 +21010,12 @@
         <is>
           <t>2-s2.0-84939133807</t>
         </is>
+      </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -20640,6 +21208,12 @@
           <t>2-s2.0-84939129235</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20847,6 +21421,12 @@
           <t>2-s2.0-84936766709</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21058,6 +21638,12 @@
           <t>2-s2.0-84936752286</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21269,6 +21855,12 @@
           <t>2-s2.0-84936769913</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21484,6 +22076,12 @@
           <t>2-s2.0-84936773983</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21708,6 +22306,12 @@
         <is>
           <t>2-s2.0-84936769883</t>
         </is>
+      </c>
+      <c r="BT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="101">
@@ -21916,6 +22520,12 @@
           <t>2-s2.0-84936761934</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22139,6 +22749,12 @@
           <t>2-s2.0-84936745199</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22362,6 +22978,12 @@
           <t>2-s2.0-84936745021</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22576,6 +23198,12 @@
         <is>
           <t>2-s2.0-84936755472</t>
         </is>
+      </c>
+      <c r="BT104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -22784,6 +23412,12 @@
           <t>2-s2.0-84930796826</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22991,6 +23625,12 @@
           <t>2-s2.0-84930801910</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23205,6 +23845,12 @@
         <is>
           <t>2-s2.0-84930805753</t>
         </is>
+      </c>
+      <c r="BT107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="108">
@@ -23413,6 +24059,12 @@
           <t>2-s2.0-84930805604</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23620,6 +24272,12 @@
           <t>2-s2.0-84930805593</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23827,6 +24485,12 @@
           <t>2-s2.0-84930815432</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24042,6 +24706,12 @@
           <t>2-s2.0-84930805723</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24256,6 +24926,12 @@
         <is>
           <t>2-s2.0-84930800601</t>
         </is>
+      </c>
+      <c r="BT112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -24464,6 +25140,12 @@
           <t>2-s2.0-84930809964</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24683,6 +25365,12 @@
           <t>2-s2.0-84930799843</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24902,6 +25590,12 @@
           <t>2-s2.0-84930244809</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25117,6 +25811,12 @@
           <t>2-s2.0-84930245104</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25332,6 +26032,12 @@
           <t>2-s2.0-84930243351</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25543,6 +26249,12 @@
           <t>2-s2.0-84930268732</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25758,6 +26470,12 @@
           <t>2-s2.0-84930250799</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25973,6 +26691,12 @@
           <t>2-s2.0-84930239378</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26187,6 +26911,12 @@
         <is>
           <t>2-s2.0-84930259872</t>
         </is>
+      </c>
+      <c r="BT121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -26395,6 +27125,12 @@
           <t>2-s2.0-84930250345</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26617,6 +27353,12 @@
         <is>
           <t>2-s2.0-84930244702</t>
         </is>
+      </c>
+      <c r="BT123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -26812,6 +27554,12 @@
         <is>
           <t>2-s2.0-84930250062</t>
         </is>
+      </c>
+      <c r="BT124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -26996,6 +27744,12 @@
           <t>2-s2.0-84930250692</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27211,6 +27965,12 @@
           <t>2-s2.0-84928475816</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27426,6 +28186,12 @@
           <t>2-s2.0-84928499188</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27640,6 +28406,12 @@
         <is>
           <t>2-s2.0-84928479041</t>
         </is>
+      </c>
+      <c r="BT128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -27848,6 +28620,12 @@
           <t>2-s2.0-84928502967</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28063,6 +28841,12 @@
           <t>2-s2.0-84928502770</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28278,6 +29062,12 @@
           <t>2-s2.0-84928493242</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28497,6 +29287,12 @@
           <t>2-s2.0-84928478127</t>
         </is>
       </c>
+      <c r="BT132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28712,6 +29508,12 @@
           <t>2-s2.0-84928479000</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28927,6 +29729,12 @@
           <t>2-s2.0-84928503209</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29145,6 +29953,12 @@
         <is>
           <t>2-s2.0-84928476194</t>
         </is>
+      </c>
+      <c r="BT135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -29349,6 +30163,12 @@
           <t>2-s2.0-84928481903</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29568,6 +30388,12 @@
           <t>2-s2.0-84928486749</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29774,6 +30600,12 @@
         <is>
           <t>2-s2.0-84928472503</t>
         </is>
+      </c>
+      <c r="BT138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -29982,6 +30814,12 @@
           <t>2-s2.0-84928468717</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -30197,6 +31035,12 @@
           <t>2-s2.0-84928480309</t>
         </is>
       </c>
+      <c r="BT140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30408,6 +31252,12 @@
           <t>2-s2.0-84928499806</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30630,6 +31480,12 @@
         <is>
           <t>2-s2.0-84925672085</t>
         </is>
+      </c>
+      <c r="BT142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="143">
@@ -30838,6 +31694,12 @@
           <t>2-s2.0-84925671969</t>
         </is>
       </c>
+      <c r="BT143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -31053,6 +31915,12 @@
           <t>2-s2.0-84925590307</t>
         </is>
       </c>
+      <c r="BT144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -31268,6 +32136,12 @@
           <t>2-s2.0-84925588302</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31487,6 +32361,12 @@
           <t>2-s2.0-84925605491</t>
         </is>
       </c>
+      <c r="BT146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31701,6 +32581,12 @@
         <is>
           <t>2-s2.0-84925682164</t>
         </is>
+      </c>
+      <c r="BT147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="148">
@@ -31905,6 +32791,12 @@
           <t>2-s2.0-84925635504</t>
         </is>
       </c>
+      <c r="BT148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -32116,6 +33008,12 @@
           <t>2-s2.0-84925603254</t>
         </is>
       </c>
+      <c r="BT149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -32327,6 +33225,12 @@
           <t>2-s2.0-84925606037</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32550,6 +33454,12 @@
           <t>2-s2.0-84925583061</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32772,6 +33682,12 @@
         <is>
           <t>2-s2.0-84925681229</t>
         </is>
+      </c>
+      <c r="BT152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="153">
@@ -32976,6 +33892,12 @@
           <t>2-s2.0-84925624764</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -33187,6 +34109,12 @@
           <t>2-s2.0-84925678061</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -33401,6 +34329,12 @@
         <is>
           <t>2-s2.0-84924660680</t>
         </is>
+      </c>
+      <c r="BT155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="156">
@@ -33609,6 +34543,12 @@
           <t>2-s2.0-84924744023</t>
         </is>
       </c>
+      <c r="BT156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -33819,6 +34759,12 @@
         <is>
           <t>2-s2.0-84924661866</t>
         </is>
+      </c>
+      <c r="BT157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="158">
@@ -34023,6 +34969,12 @@
           <t>2-s2.0-84924700113</t>
         </is>
       </c>
+      <c r="BT158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -34230,6 +35182,12 @@
           <t>2-s2.0-84924750664</t>
         </is>
       </c>
+      <c r="BT159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -34437,6 +35395,12 @@
           <t>2-s2.0-84924719279</t>
         </is>
       </c>
+      <c r="BT160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -34644,6 +35608,12 @@
           <t>2-s2.0-84924740352</t>
         </is>
       </c>
+      <c r="BT161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -34851,6 +35821,12 @@
           <t>2-s2.0-84924680677</t>
         </is>
       </c>
+      <c r="BT162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU162" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -35066,6 +36042,12 @@
           <t>2-s2.0-84924650067</t>
         </is>
       </c>
+      <c r="BT163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU163" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -35288,6 +36270,12 @@
         <is>
           <t>2-s2.0-84924721725</t>
         </is>
+      </c>
+      <c r="BT164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="165">
@@ -35496,6 +36484,12 @@
           <t>2-s2.0-84924660999</t>
         </is>
       </c>
+      <c r="BT165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -35710,6 +36704,12 @@
         <is>
           <t>2-s2.0-84924654134</t>
         </is>
+      </c>
+      <c r="BT166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -35918,6 +36918,12 @@
           <t>2-s2.0-84924660393</t>
         </is>
       </c>
+      <c r="BT167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU167" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -36125,6 +37131,12 @@
           <t>2-s2.0-84924710930</t>
         </is>
       </c>
+      <c r="BT168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU168" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -36348,6 +37360,12 @@
           <t>2-s2.0-84924750603</t>
         </is>
       </c>
+      <c r="BT169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU169" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -36563,6 +37581,12 @@
           <t>2-s2.0-84922330246</t>
         </is>
       </c>
+      <c r="BT170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU170" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -36778,6 +37802,12 @@
           <t>2-s2.0-84922335009</t>
         </is>
       </c>
+      <c r="BT171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU171" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -36992,6 +38022,12 @@
         <is>
           <t>2-s2.0-84922328306</t>
         </is>
+      </c>
+      <c r="BT172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU172" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="173">
@@ -37196,6 +38232,12 @@
           <t>2-s2.0-84922319639</t>
         </is>
       </c>
+      <c r="BT173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU173" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -37419,6 +38461,12 @@
           <t>2-s2.0-84922311357</t>
         </is>
       </c>
+      <c r="BT174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU174" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -37634,6 +38682,12 @@
           <t>2-s2.0-84922286238</t>
         </is>
       </c>
+      <c r="BT175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU175" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -37849,6 +38903,12 @@
           <t>2-s2.0-84922335212</t>
         </is>
       </c>
+      <c r="BT176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -38056,6 +39116,12 @@
           <t>2-s2.0-84922325433</t>
         </is>
       </c>
+      <c r="BT177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU177" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -38271,6 +39337,12 @@
           <t>2-s2.0-84922319738</t>
         </is>
       </c>
+      <c r="BT178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU178" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -38482,6 +39554,12 @@
           <t>2-s2.0-84922333019</t>
         </is>
       </c>
+      <c r="BT179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -38696,6 +39774,12 @@
         <is>
           <t>2-s2.0-84922336086</t>
         </is>
+      </c>
+      <c r="BT180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU180" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -38904,6 +39988,12 @@
           <t>2-s2.0-84927658611</t>
         </is>
       </c>
+      <c r="BT181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU181" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -39111,6 +40201,12 @@
           <t>2-s2.0-84927607228</t>
         </is>
       </c>
+      <c r="BT182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU182" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -39322,6 +40418,12 @@
           <t>2-s2.0-84927661778</t>
         </is>
       </c>
+      <c r="BT183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -39541,6 +40643,12 @@
           <t>2-s2.0-84927657983</t>
         </is>
       </c>
+      <c r="BT184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU184" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -39756,6 +40864,12 @@
           <t>2-s2.0-84927662898</t>
         </is>
       </c>
+      <c r="BT185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU185" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -39971,6 +41085,12 @@
           <t>2-s2.0-84927597930</t>
         </is>
       </c>
+      <c r="BT186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU186" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -40182,6 +41302,12 @@
           <t>2-s2.0-84927643642</t>
         </is>
       </c>
+      <c r="BT187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU187" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -40392,6 +41518,12 @@
         <is>
           <t>2-s2.0-84927668524</t>
         </is>
+      </c>
+      <c r="BT188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU188" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="189">
@@ -40600,6 +41732,12 @@
           <t>2-s2.0-84927593056</t>
         </is>
       </c>
+      <c r="BT189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -40815,6 +41953,12 @@
           <t>2-s2.0-84927629727</t>
         </is>
       </c>
+      <c r="BT190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -41026,6 +42170,12 @@
           <t>2-s2.0-84927610985</t>
         </is>
       </c>
+      <c r="BT191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -41245,6 +42395,12 @@
           <t>2-s2.0-84927624086</t>
         </is>
       </c>
+      <c r="BT192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU192" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -41456,6 +42612,12 @@
           <t>2-s2.0-84927652819</t>
         </is>
       </c>
+      <c r="BT193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -41671,6 +42833,12 @@
           <t>2-s2.0-84927653269</t>
         </is>
       </c>
+      <c r="BT194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -41886,6 +43054,12 @@
           <t>2-s2.0-84919778608</t>
         </is>
       </c>
+      <c r="BT195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -42097,6 +43271,12 @@
           <t>2-s2.0-84919740535</t>
         </is>
       </c>
+      <c r="BT196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU196" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -42316,6 +43496,12 @@
           <t>2-s2.0-84919725858</t>
         </is>
       </c>
+      <c r="BT197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU197" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -42538,6 +43724,12 @@
         <is>
           <t>2-s2.0-84919767154</t>
         </is>
+      </c>
+      <c r="BT198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU198" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="199">
@@ -42746,6 +43938,12 @@
           <t>2-s2.0-84919752701</t>
         </is>
       </c>
+      <c r="BT199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU199" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -42957,6 +44155,12 @@
           <t>2-s2.0-84919775189</t>
         </is>
       </c>
+      <c r="BT200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU200" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -43171,6 +44375,12 @@
         <is>
           <t>2-s2.0-84919772189</t>
         </is>
+      </c>
+      <c r="BT201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU201" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -43379,6 +44589,12 @@
           <t>2-s2.0-84919752724</t>
         </is>
       </c>
+      <c r="BT202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU202" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -43601,6 +44817,12 @@
         <is>
           <t>2-s2.0-84919721797</t>
         </is>
+      </c>
+      <c r="BT203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU203" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="204">
@@ -43811,6 +45033,12 @@
           <t>2-s2.0-84919775849</t>
         </is>
       </c>
+      <c r="BT204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU204" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -44018,6 +45246,12 @@
           <t>2-s2.0-84919762267</t>
         </is>
       </c>
+      <c r="BT205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -44225,6 +45459,12 @@
           <t>2-s2.0-84919740507</t>
         </is>
       </c>
+      <c r="BT206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU206" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -44440,6 +45680,12 @@
           <t>2-s2.0-84919771113</t>
         </is>
       </c>
+      <c r="BT207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -44651,6 +45897,12 @@
           <t>2-s2.0-84919717247</t>
         </is>
       </c>
+      <c r="BT208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU208" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -44865,6 +46117,12 @@
         <is>
           <t>2-s2.0-84919777960</t>
         </is>
+      </c>
+      <c r="BT209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -45060,6 +46318,12 @@
         <is>
           <t>2-s2.0-84919718396</t>
         </is>
+      </c>
+      <c r="BT210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU210" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -45244,6 +46508,12 @@
           <t>2-s2.0-84919733145</t>
         </is>
       </c>
+      <c r="BT211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -45451,6 +46721,12 @@
           <t>2-s2.0-84922290754</t>
         </is>
       </c>
+      <c r="BT212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU212" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -45674,6 +46950,12 @@
           <t>2-s2.0-84922286426</t>
         </is>
       </c>
+      <c r="BT213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -45889,6 +47171,12 @@
           <t>2-s2.0-84922331890</t>
         </is>
       </c>
+      <c r="BT214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU214" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -46108,6 +47396,12 @@
           <t>2-s2.0-84922330338</t>
         </is>
       </c>
+      <c r="BT215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU215" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -46322,6 +47616,12 @@
         <is>
           <t>2-s2.0-84927634303</t>
         </is>
+      </c>
+      <c r="BT216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU216" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="217">
@@ -46530,6 +47830,12 @@
           <t>2-s2.0-84927667309</t>
         </is>
       </c>
+      <c r="BT217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU217" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -46752,6 +48058,12 @@
         <is>
           <t>2-s2.0-84925598927</t>
         </is>
+      </c>
+      <c r="BT218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU218" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="219">
@@ -46955,6 +48267,12 @@
         <is>
           <t>2-s2.0-84925596765</t>
         </is>
+      </c>
+      <c r="BT219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU219" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="220">
@@ -47141,6 +48459,12 @@
           <t>2-s2.0-84925651594</t>
         </is>
       </c>
+      <c r="BT220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -47356,6 +48680,12 @@
           <t>2-s2.0-84930239829</t>
         </is>
       </c>
+      <c r="BT221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU221" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -47575,6 +48905,12 @@
           <t>2-s2.0-84930241066</t>
         </is>
       </c>
+      <c r="BT222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU222" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -47798,6 +49134,12 @@
           <t>2-s2.0-84930250572</t>
         </is>
       </c>
+      <c r="BT223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU223" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -48013,6 +49355,12 @@
           <t>2-s2.0-84930797874</t>
         </is>
       </c>
+      <c r="BT224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU224" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -48232,6 +49580,12 @@
           <t>2-s2.0-84930798812</t>
         </is>
       </c>
+      <c r="BT225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU225" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -48455,6 +49809,12 @@
           <t>2-s2.0-84936762865</t>
         </is>
       </c>
+      <c r="BT226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU226" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -48670,6 +50030,12 @@
           <t>2-s2.0-84936751257</t>
         </is>
       </c>
+      <c r="BT227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU227" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -48881,6 +50247,12 @@
           <t>2-s2.0-84936748569</t>
         </is>
       </c>
+      <c r="BT228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU228" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -49096,6 +50468,12 @@
           <t>2-s2.0-84939452609</t>
         </is>
       </c>
+      <c r="BT229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU229" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -49311,6 +50689,12 @@
           <t>2-s2.0-84939489401</t>
         </is>
       </c>
+      <c r="BT230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU230" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -49521,6 +50905,12 @@
         <is>
           <t>2-s2.0-84939556509</t>
         </is>
+      </c>
+      <c r="BT231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU231" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="232">
@@ -49729,6 +51119,12 @@
           <t>2-s2.0-84939530348</t>
         </is>
       </c>
+      <c r="BT232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU232" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -49940,6 +51336,12 @@
           <t>2-s2.0-84939484476</t>
         </is>
       </c>
+      <c r="BT233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU233" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -50154,6 +51556,12 @@
         <is>
           <t>2-s2.0-84983112803</t>
         </is>
+      </c>
+      <c r="BT234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -50362,6 +51770,12 @@
           <t>2-s2.0-84983110862</t>
         </is>
       </c>
+      <c r="BT235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU235" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -50573,6 +51987,12 @@
           <t>2-s2.0-84942104942</t>
         </is>
       </c>
+      <c r="BT236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU236" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -50788,6 +52208,12 @@
           <t>2-s2.0-84942114712</t>
         </is>
       </c>
+      <c r="BT237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU237" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -50999,6 +52425,12 @@
           <t>2-s2.0-84949561515</t>
         </is>
       </c>
+      <c r="BT238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -51214,6 +52646,12 @@
           <t>2-s2.0-84951152578</t>
         </is>
       </c>
+      <c r="BT239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU239" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -51425,6 +52863,12 @@
           <t>2-s2.0-84951030760</t>
         </is>
       </c>
+      <c r="BT240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -51640,6 +53084,12 @@
           <t>2-s2.0-84951078464</t>
         </is>
       </c>
+      <c r="BT241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU241" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -51851,6 +53301,12 @@
           <t>2-s2.0-84951149713</t>
         </is>
       </c>
+      <c r="BT242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU242" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
